--- a/src/main/resources/InsuranceData.xlsx
+++ b/src/main/resources/InsuranceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mypco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537D180B-4069-43B8-9DC8-BB9E11936765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D2DCD9-7CB6-4C23-A0E1-54F81F6FE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="459" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
